--- a/log_history/Y3_B2526_Histology_scanner1760525626557_9cf323db150dd918a9c09544befc5388721a83b6a3e4b5a50d15924cd9d1c90f.xlsx
+++ b/log_history/Y3_B2526_Histology_scanner1760525626557_9cf323db150dd918a9c09544befc5388721a83b6a3e4b5a50d15924cd9d1c90f.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Histology" sheetId="1" r:id="rId1"/>
+    <sheet name="Session" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>

--- a/log_history/Y3_B2526_Histology_scanner1760525626557_9cf323db150dd918a9c09544befc5388721a83b6a3e4b5a50d15924cd9d1c90f.xlsx
+++ b/log_history/Y3_B2526_Histology_scanner1760525626557_9cf323db150dd918a9c09544befc5388721a83b6a3e4b5a50d15924cd9d1c90f.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Session" sheetId="1" r:id="rId1"/>
+    <sheet name="Histology" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
